--- a/data/trans_orig/IP07A13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08DB252-5204-4128-8A44-64C2B61FFF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD23E8A8-43CE-497F-A6D0-2225573AF438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E45C7902-61DE-4E6A-B654-86BDB0DFD6B3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A76ED4C3-8CD6-48DE-BC3B-A3DA48710E01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,241 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Moderadamente</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>10,43%</t>
@@ -94,15 +325,9 @@
     <t>9,46%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
     <t>46,67%</t>
   </si>
   <si>
@@ -130,9 +355,6 @@
     <t>54,89%</t>
   </si>
   <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
     <t>42,9%</t>
   </si>
   <si>
@@ -160,153 +382,141 @@
     <t>46,18%</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
     <t>7,68%</t>
   </si>
   <si>
@@ -388,214 +598,34 @@
     <t>47,05%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>9,73%</t>
@@ -676,39 +706,207 @@
     <t>41,33%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
     <t>13,87%</t>
   </si>
   <si>
@@ -784,130 +982,142 @@
     <t>42,11%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>12,18%</t>
@@ -991,214 +1201,37 @@
     <t>37,62%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>10,18%</t>
@@ -1282,42 +1315,195 @@
     <t>39,29%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 47,04%)</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
     <t>8,15%</t>
   </si>
   <si>
@@ -1396,121 +1582,106 @@
     <t>57,73%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>7,14%</t>
@@ -1591,175 +1762,28 @@
     <t>53,39%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>6,75%</t>
@@ -1835,30 +1859,6 @@
   </si>
   <si>
     <t>54,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4304A80-BF0E-4401-8ACF-9D0D0A73D68D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF800D12-1F21-4827-83F9-F59475BBB585}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2368,10 +2368,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>10354</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2383,238 +2383,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7">
-        <v>8874</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>30</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19229</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>46309</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>54476</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>100785</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>42572</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>39981</v>
+        <v>1421</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>82553</v>
+        <v>1421</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>7408</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>661</v>
+        <v>8966</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>661</v>
+        <v>16374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>6408</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4650</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="7">
+        <v>14</v>
+      </c>
+      <c r="N8" s="7">
+        <v>11058</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,306 +2623,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>99235</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>103993</v>
+        <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>203228</v>
+        <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>6387</v>
+        <v>635</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>3262</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>9649</v>
+        <v>635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>802</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="7">
-        <v>33456</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H11" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>26965</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>60421</v>
+        <v>802</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>25720</v>
+        <v>6387</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>18752</v>
+        <v>3262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>44472</v>
+        <v>9649</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7">
+        <v>50</v>
+      </c>
+      <c r="D13" s="7">
+        <v>33456</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="7">
         <v>40</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>635</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>26965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>635</v>
+        <v>60421</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>802</v>
+        <v>25720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>18752</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>802</v>
+        <v>44472</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2937,13 @@
         <v>66999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -2952,13 +2952,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -2967,270 +2967,270 @@
         <v>115978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>7619</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>12151</v>
+        <v>661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>19770</v>
+        <v>661</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>55474</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>35977</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>91451</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10354</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="7">
+        <v>14</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8874</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="7">
         <v>30</v>
       </c>
-      <c r="C18" s="7">
-        <v>52</v>
-      </c>
-      <c r="D18" s="7">
-        <v>35454</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="7">
-        <v>54</v>
-      </c>
-      <c r="I18" s="7">
-        <v>41601</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M18" s="7">
-        <v>106</v>
-      </c>
       <c r="N18" s="7">
-        <v>77055</v>
+        <v>19229</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>46309</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>54476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>100785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7">
-        <v>695</v>
+        <v>42572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>39981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="N20" s="7">
-        <v>695</v>
+        <v>82553</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,54 +3239,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D21" s="7">
-        <v>99242</v>
+        <v>99235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>89729</v>
+        <v>103993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="N21" s="7">
-        <v>188971</v>
+        <v>203228</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3298,247 +3298,247 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>7408</v>
+        <v>719</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>8966</v>
+        <v>632</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>16374</v>
+        <v>1352</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9265</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="7">
+        <v>16</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8852</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24" s="7">
         <v>30</v>
       </c>
-      <c r="C24" s="7">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7">
-        <v>6408</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="7">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4650</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="7">
-        <v>14</v>
-      </c>
       <c r="N24" s="7">
-        <v>11058</v>
+        <v>18117</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>38379</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>31357</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>69736</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>17931</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>20216</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>147</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>38147</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,303 +3547,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>66295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>15037</v>
+        <v>61057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="N27" s="7">
-        <v>28853</v>
+        <v>127351</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>9265</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>152</v>
       </c>
       <c r="H28" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>8852</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M28" s="7">
-        <v>30</v>
-      </c>
-      <c r="N28" s="7">
-        <v>18117</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>38379</v>
+        <v>695</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>31357</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>69736</v>
+        <v>695</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>17931</v>
+        <v>7619</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H30" s="7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>20216</v>
+        <v>12151</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M30" s="7">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="N30" s="7">
-        <v>38147</v>
+        <v>19770</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>55474</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>35977</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>91451</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D32" s="7">
-        <v>719</v>
+        <v>35454</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="7">
+        <v>54</v>
+      </c>
+      <c r="I32" s="7">
+        <v>41601</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>632</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>106</v>
+      </c>
+      <c r="N32" s="7">
+        <v>77055</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M32" s="7">
-        <v>2</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1352</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>185</v>
@@ -3855,49 +3855,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D33" s="7">
-        <v>66295</v>
+        <v>99242</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>61057</v>
+        <v>89729</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="N33" s="7">
-        <v>127351</v>
+        <v>188971</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,244 +3908,244 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>33626</v>
+        <v>635</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>661</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="7">
-        <v>53</v>
-      </c>
-      <c r="I34" s="7">
-        <v>34560</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1296</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M34" s="7">
-        <v>104</v>
-      </c>
-      <c r="N34" s="7">
-        <v>68186</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>181026</v>
+        <v>2216</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
+        <v>632</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M35" s="7">
+        <v>4</v>
+      </c>
+      <c r="N35" s="7">
+        <v>2848</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H35" s="7">
-        <v>236</v>
-      </c>
-      <c r="I35" s="7">
-        <v>157742</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M35" s="7">
-        <v>506</v>
-      </c>
-      <c r="N35" s="7">
-        <v>338767</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="D36" s="7">
-        <v>128085</v>
+        <v>33626</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" s="7">
+        <v>53</v>
+      </c>
+      <c r="I36" s="7">
+        <v>34560</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M36" s="7">
+        <v>104</v>
+      </c>
+      <c r="N36" s="7">
+        <v>68186</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H36" s="7">
-        <v>182</v>
-      </c>
-      <c r="I36" s="7">
-        <v>125200</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M36" s="7">
-        <v>376</v>
-      </c>
-      <c r="N36" s="7">
-        <v>253285</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="D37" s="7">
-        <v>635</v>
+        <v>181026</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" s="7">
+        <v>236</v>
+      </c>
+      <c r="I37" s="7">
+        <v>157742</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" s="7">
+        <v>506</v>
+      </c>
+      <c r="N37" s="7">
+        <v>338767</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>661</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1296</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="D38" s="7">
-        <v>2216</v>
+        <v>128085</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>182</v>
+      </c>
+      <c r="I38" s="7">
+        <v>125200</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7">
-        <v>632</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>218</v>
       </c>
       <c r="M38" s="7">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="N38" s="7">
-        <v>2848</v>
+        <v>253285</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>219</v>
@@ -4169,13 +4169,13 @@
         <v>345587</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>473</v>
@@ -4184,13 +4184,13 @@
         <v>318795</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>992</v>
@@ -4199,13 +4199,13 @@
         <v>664382</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4226,7 +4226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B9D7D1-C948-4A0C-8F53-0A3C5119ABC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FA6E60-D481-446E-A09F-F3874C406EE9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4344,253 +4344,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13395</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H4" s="7">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9781</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M4" s="7">
-        <v>35</v>
-      </c>
-      <c r="N4" s="7">
-        <v>23176</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>47137</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>48798</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>95934</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>34067</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>37287</v>
+        <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="M6" s="7">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>71354</v>
+        <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>8966</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>16405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>1967</v>
+        <v>5524</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>1341</v>
+        <v>3579</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>3307</v>
+        <v>9103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,306 +4599,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>96566</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>97207</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>193772</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2070</v>
+        <v>1321</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2386</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>4456</v>
+        <v>1321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>33486</v>
+        <v>634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>33939</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>67426</v>
+        <v>634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>20663</v>
+        <v>2070</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>274</v>
+        <v>118</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>16677</v>
+        <v>2386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>37341</v>
+        <v>4456</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>1321</v>
+        <v>33486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>33939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>1321</v>
+        <v>67426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>634</v>
+        <v>20663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>16677</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N14" s="7">
-        <v>634</v>
+        <v>37341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4913,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>74</v>
@@ -4928,13 +4928,13 @@
         <v>53003</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>159</v>
@@ -4943,270 +4943,270 @@
         <v>111177</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>11171</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>6293</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>17464</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>45620</v>
+        <v>1967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>55430</v>
+        <v>1341</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>101050</v>
+        <v>3307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>32113</v>
+        <v>13395</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>24813</v>
+        <v>9781</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="N18" s="7">
-        <v>56926</v>
+        <v>23176</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>47137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="I19" s="7">
-        <v>1741</v>
+        <v>48798</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="N19" s="7">
-        <v>1741</v>
+        <v>95934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>2782</v>
+        <v>34067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I20" s="7">
-        <v>701</v>
+        <v>37287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="N20" s="7">
-        <v>3483</v>
+        <v>71354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,54 +5215,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D21" s="7">
-        <v>91686</v>
+        <v>96566</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I21" s="7">
-        <v>88978</v>
+        <v>97207</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="N21" s="7">
-        <v>180664</v>
+        <v>193772</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5274,247 +5274,247 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>8966</v>
+        <v>607</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>7438</v>
+        <v>678</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>16405</v>
+        <v>1285</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>5524</v>
+        <v>6939</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>3579</v>
+        <v>4746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N24" s="7">
-        <v>9103</v>
+        <v>11685</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
         <v>40</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24446</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>38263</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>62708</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>36925</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>21462</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>58387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,303 +5523,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>68917</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>65149</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>134066</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>6939</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>354</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H28" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>4746</v>
+        <v>1741</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M28" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>11685</v>
+        <v>1741</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>24446</v>
+        <v>2782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="H29" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>38263</v>
+        <v>701</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="M29" s="7">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>62708</v>
+        <v>3483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>36925</v>
+        <v>11171</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="H30" s="7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>21462</v>
+        <v>6293</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M30" s="7">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="N30" s="7">
-        <v>58387</v>
+        <v>17464</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>45620</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>55430</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>374</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>101050</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D32" s="7">
-        <v>607</v>
+        <v>32113</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H32" s="7">
+        <v>33</v>
+      </c>
+      <c r="I32" s="7">
+        <v>24813</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>79</v>
+      </c>
+      <c r="N32" s="7">
+        <v>56926</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>678</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1285</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>386</v>
@@ -5831,49 +5831,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D33" s="7">
-        <v>68917</v>
+        <v>91686</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I33" s="7">
-        <v>65149</v>
+        <v>88978</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="N33" s="7">
-        <v>134066</v>
+        <v>180664</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,214 +5884,214 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>33575</v>
+        <v>1321</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>387</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1741</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3062</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H34" s="7">
-        <v>35</v>
-      </c>
-      <c r="I34" s="7">
-        <v>24132</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="M34" s="7">
-        <v>85</v>
-      </c>
-      <c r="N34" s="7">
-        <v>57706</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>394</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="D35" s="7">
-        <v>159655</v>
+        <v>5989</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2720</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M35" s="7">
+        <v>13</v>
+      </c>
+      <c r="N35" s="7">
+        <v>8709</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H35" s="7">
-        <v>259</v>
-      </c>
-      <c r="I35" s="7">
-        <v>183869</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="M35" s="7">
-        <v>488</v>
-      </c>
-      <c r="N35" s="7">
-        <v>343524</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D36" s="7">
-        <v>129293</v>
+        <v>33575</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H36" s="7">
+        <v>35</v>
+      </c>
+      <c r="I36" s="7">
+        <v>24132</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M36" s="7">
+        <v>85</v>
+      </c>
+      <c r="N36" s="7">
+        <v>57706</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H36" s="7">
-        <v>149</v>
-      </c>
-      <c r="I36" s="7">
-        <v>103819</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M36" s="7">
-        <v>339</v>
-      </c>
-      <c r="N36" s="7">
-        <v>233112</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="D37" s="7">
-        <v>1321</v>
+        <v>159655</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H37" s="7">
+        <v>259</v>
+      </c>
+      <c r="I37" s="7">
+        <v>183869</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="M37" s="7">
+        <v>488</v>
+      </c>
+      <c r="N37" s="7">
+        <v>343524</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1741</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3062</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="D38" s="7">
-        <v>5989</v>
+        <v>129293</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>416</v>
@@ -6103,10 +6103,10 @@
         <v>418</v>
       </c>
       <c r="H38" s="7">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="I38" s="7">
-        <v>2720</v>
+        <v>103819</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>419</v>
@@ -6118,10 +6118,10 @@
         <v>421</v>
       </c>
       <c r="M38" s="7">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="N38" s="7">
-        <v>8709</v>
+        <v>233112</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>422</v>
@@ -6145,13 +6145,13 @@
         <v>329833</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>449</v>
@@ -6160,13 +6160,13 @@
         <v>316280</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>929</v>
@@ -6175,13 +6175,13 @@
         <v>646113</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6202,7 +6202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2411F24-1AD4-4E50-AAE8-D23E260D0581}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EC3740-775F-4B8A-AF4D-46ECBC1F6CA4}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6320,253 +6320,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>8724</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="H4" s="7">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7216</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="M4" s="7">
-        <v>24</v>
-      </c>
-      <c r="N4" s="7">
-        <v>15940</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>37409</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>434</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>435</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H5" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>46300</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>437</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>438</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="M5" s="7">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>83709</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>441</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>60228</v>
+        <v>562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="H6" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>51505</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>446</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>447</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="M6" s="7">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>111732</v>
+        <v>562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>450</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6226</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>993</v>
+        <v>5676</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>993</v>
+        <v>11902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>439</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>671</v>
+        <v>7525</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>442</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>617</v>
+        <v>8250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>445</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>1288</v>
+        <v>15776</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>448</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,306 +6575,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>107032</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>106630</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>316</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>213661</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3745</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>463</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>464</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>450</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>3296</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>451</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>7041</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>19472</v>
+        <v>727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>29574</v>
+        <v>675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>472</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>473</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="M11" s="7">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>49046</v>
+        <v>1402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>476</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>35369</v>
+        <v>3745</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>132</v>
+        <v>457</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>265</v>
+        <v>458</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>477</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>22708</v>
+        <v>3296</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>479</v>
+        <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>480</v>
+        <v>198</v>
       </c>
       <c r="M12" s="7">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>58076</v>
+        <v>7041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>19472</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>463</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>29574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>466</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>49046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>468</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>469</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>486</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>727</v>
+        <v>35369</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>487</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I14" s="7">
-        <v>675</v>
+        <v>22708</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>471</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="N14" s="7">
-        <v>1402</v>
+        <v>58076</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>475</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6889,13 @@
         <v>59313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6904,13 +6904,13 @@
         <v>56253</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -6919,270 +6919,270 @@
         <v>115565</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>7188</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>491</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>492</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>8941</v>
+        <v>993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>495</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>16129</v>
+        <v>993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>498</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>46062</v>
+        <v>671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="H17" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>46083</v>
+        <v>617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>504</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="M17" s="7">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>92145</v>
+        <v>1288</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>507</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>47466</v>
+        <v>8724</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="H18" s="7">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>51796</v>
+        <v>7216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="M18" s="7">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="N18" s="7">
-        <v>99262</v>
+        <v>15940</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>515</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>37409</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>496</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>497</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>262</v>
+        <v>498</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>46300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>83709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>41</v>
+        <v>502</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>503</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>60228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>506</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>507</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I20" s="7">
-        <v>772</v>
+        <v>51505</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>509</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="N20" s="7">
-        <v>772</v>
+        <v>111732</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>511</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>512</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,54 +7191,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D21" s="7">
-        <v>100716</v>
+        <v>107032</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>106630</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="N21" s="7">
-        <v>208308</v>
+        <v>213661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7247,250 +7247,250 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>519</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>515</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>562</v>
+        <v>1233</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>524</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>5676</v>
+        <v>1230</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>526</v>
+        <v>191</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>527</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="M23" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>11902</v>
+        <v>1230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>530</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>7525</v>
+        <v>3942</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H24" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>8250</v>
+        <v>3039</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>535</v>
+        <v>348</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="M24" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>15776</v>
+        <v>6981</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>29225</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>529</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>530</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>27393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>532</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>533</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>56618</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>41</v>
+        <v>535</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>536</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>43016</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>538</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>539</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>540</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>39402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>41</v>
+        <v>541</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>542</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>82419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>41</v>
+        <v>544</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,303 +7499,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>76771</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>148481</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>3942</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>542</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>543</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>544</v>
+        <v>261</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>3039</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>545</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>546</v>
+        <v>395</v>
       </c>
       <c r="M28" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>6981</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>547</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>548</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>549</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>29225</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>551</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>552</v>
+        <v>261</v>
       </c>
       <c r="H29" s="7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>27393</v>
+        <v>772</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>554</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="M29" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>56618</v>
+        <v>772</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>556</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>557</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>558</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>43016</v>
+        <v>7188</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="H30" s="7">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I30" s="7">
-        <v>39402</v>
+        <v>8941</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="M30" s="7">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="N30" s="7">
-        <v>82419</v>
+        <v>16129</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>27</v>
+        <v>555</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D31" s="7">
-        <v>588</v>
+        <v>46062</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>423</v>
+        <v>557</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>558</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I31" s="7">
-        <v>646</v>
+        <v>46083</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>41</v>
+        <v>561</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>259</v>
+        <v>562</v>
       </c>
       <c r="M31" s="7">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="N31" s="7">
-        <v>1233</v>
+        <v>92145</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>41</v>
+        <v>564</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>47466</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>41</v>
+        <v>566</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>42</v>
+        <v>567</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H32" s="7">
+        <v>66</v>
+      </c>
+      <c r="I32" s="7">
+        <v>51796</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="M32" s="7">
+        <v>129</v>
+      </c>
+      <c r="N32" s="7">
+        <v>99262</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1230</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1230</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>573</v>
@@ -7807,49 +7807,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D33" s="7">
-        <v>76771</v>
+        <v>100716</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="N33" s="7">
-        <v>148481</v>
+        <v>208308</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7860,250 +7860,250 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>24162</v>
+        <v>588</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>574</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>490</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="H34" s="7">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>22491</v>
+        <v>1638</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2226</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="M34" s="7">
-        <v>68</v>
-      </c>
-      <c r="N34" s="7">
-        <v>46653</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>579</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>580</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>138395</v>
+        <v>1397</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="7">
+        <v>5</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3294</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M35" s="7">
+        <v>7</v>
+      </c>
+      <c r="N35" s="7">
+        <v>4691</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="H35" s="7">
-        <v>224</v>
-      </c>
-      <c r="I35" s="7">
-        <v>155025</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="M35" s="7">
-        <v>414</v>
-      </c>
-      <c r="N35" s="7">
-        <v>293420</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>264</v>
+        <v>34</v>
       </c>
       <c r="D36" s="7">
-        <v>193604</v>
+        <v>24162</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>591</v>
+        <v>456</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>592</v>
+        <v>525</v>
       </c>
       <c r="H36" s="7">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="I36" s="7">
-        <v>173661</v>
+        <v>22491</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="M36" s="7">
-        <v>508</v>
+        <v>68</v>
       </c>
       <c r="N36" s="7">
-        <v>367265</v>
+        <v>46653</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="D37" s="7">
-        <v>588</v>
+        <v>138395</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="H37" s="7">
-        <v>2</v>
+        <v>224</v>
       </c>
       <c r="I37" s="7">
-        <v>1638</v>
+        <v>155025</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>455</v>
+        <v>592</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>41</v>
+        <v>593</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="M37" s="7">
-        <v>3</v>
+        <v>414</v>
       </c>
       <c r="N37" s="7">
-        <v>2226</v>
+        <v>293420</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>221</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="D38" s="7">
-        <v>1397</v>
+        <v>193604</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H38" s="7">
+        <v>244</v>
+      </c>
+      <c r="I38" s="7">
+        <v>173661</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H38" s="7">
-        <v>5</v>
-      </c>
-      <c r="I38" s="7">
-        <v>3294</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="K38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>508</v>
+      </c>
+      <c r="N38" s="7">
+        <v>367265</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="M38" s="7">
-        <v>7</v>
-      </c>
-      <c r="N38" s="7">
-        <v>4691</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>606</v>
@@ -8121,13 +8121,13 @@
         <v>358146</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>509</v>
@@ -8136,13 +8136,13 @@
         <v>356110</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>1000</v>
@@ -8151,13 +8151,13 @@
         <v>714256</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A13-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0055C11A-4C2C-40F3-B9F6-01C91321CA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F215A63B-6EA8-493C-ACDA-22F2C110A3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9256C78A-6C5E-41A4-89D8-EDDF5863FE75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4816B2C-6C74-4551-9AE6-B5766AFE1ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="612">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -76,28 +76,28 @@
     <t>46,38%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -106,1726 +106,1774 @@
     <t>53,62%</t>
   </si>
   <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
     <t>29,95%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
   </si>
   <si>
     <t>48,42%</t>
   </si>
   <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
+    <t>54,61%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
+    <t>34,32%</t>
   </si>
   <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
   </si>
   <si>
     <t>41,08%</t>
   </si>
   <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
+    <t>37,81%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>4,31%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
+    <t>1,23%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
     <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8875AB23-F0CE-4285-A001-DAC733222642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD5FF2B-0DEC-432B-84CA-2676935609BA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2777,7 +2825,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -2786,13 +2834,13 @@
         <v>3262</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -2801,13 +2849,13 @@
         <v>9649</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2870,13 @@
         <v>802</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2843,7 +2891,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2852,13 +2900,13 @@
         <v>802</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2921,13 @@
         <v>635</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2894,7 +2942,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2903,13 +2951,13 @@
         <v>635</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,7 +3013,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2977,13 +3025,13 @@
         <v>42572</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -2992,13 +3040,13 @@
         <v>39981</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
@@ -3007,13 +3055,13 @@
         <v>82553</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3076,13 @@
         <v>46309</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -3043,13 +3091,13 @@
         <v>54476</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>157</v>
@@ -3058,13 +3106,13 @@
         <v>100785</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3127,13 @@
         <v>10354</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -3094,13 +3142,13 @@
         <v>8874</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -3109,13 +3157,13 @@
         <v>19229</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3184,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3151,7 +3199,7 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3166,7 +3214,7 @@
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,7 +3235,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3196,13 +3244,13 @@
         <v>661</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3211,13 +3259,13 @@
         <v>661</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3321,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3285,13 +3333,13 @@
         <v>17931</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -3300,13 +3348,13 @@
         <v>20216</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -3315,7 +3363,7 @@
         <v>38147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>122</v>
@@ -3459,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -3468,13 +3516,13 @@
         <v>1352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3749,7 @@
         <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -3710,13 +3758,13 @@
         <v>12151</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -3725,13 +3773,13 @@
         <v>19770</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3794,13 @@
         <v>695</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3767,7 +3815,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3776,13 +3824,13 @@
         <v>695</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,7 +3851,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3818,7 +3866,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3833,7 +3881,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3949,13 @@
         <v>128085</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H34" s="7">
         <v>182</v>
@@ -3916,13 +3964,13 @@
         <v>125200</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>376</v>
@@ -3931,13 +3979,13 @@
         <v>253285</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +4000,13 @@
         <v>181026</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H35" s="7">
         <v>236</v>
@@ -3967,13 +4015,13 @@
         <v>157742</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M35" s="7">
         <v>506</v>
@@ -3982,13 +4030,13 @@
         <v>338767</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4051,13 @@
         <v>33626</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -4018,13 +4066,13 @@
         <v>34560</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M36" s="7">
         <v>104</v>
@@ -4033,13 +4081,13 @@
         <v>68186</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4102,13 @@
         <v>2216</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4069,13 +4117,13 @@
         <v>632</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -4084,13 +4132,13 @@
         <v>2848</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4153,13 @@
         <v>635</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4120,13 +4168,13 @@
         <v>661</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -4135,7 +4183,7 @@
         <v>1296</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>31</v>
@@ -4218,7 +4266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB32645-4A17-4A2D-99D0-14036EEA893E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC38A309-D52F-4517-8199-AD36200F36FB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4342,7 +4390,7 @@
         <v>5524</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>223</v>
@@ -4785,10 +4833,10 @@
         <v>271</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4857,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4824,7 +4872,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4833,13 +4881,13 @@
         <v>634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4902,13 @@
         <v>1321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4875,7 +4923,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4884,13 +4932,13 @@
         <v>1321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,7 +4994,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4958,13 +5006,13 @@
         <v>34067</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4973,13 +5021,13 @@
         <v>37287</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -4988,13 +5036,13 @@
         <v>71354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5057,13 @@
         <v>47137</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5024,13 +5072,13 @@
         <v>48798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -5039,13 +5087,13 @@
         <v>95934</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5108,13 @@
         <v>13395</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5075,13 +5123,13 @@
         <v>9781</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -5090,13 +5138,13 @@
         <v>23176</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5159,13 @@
         <v>1967</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5132,7 +5180,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>63</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5141,13 +5189,13 @@
         <v>3307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,7 +5216,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5183,7 +5231,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5198,7 +5246,7 @@
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,7 +5302,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5299,10 +5347,10 @@
         <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5365,13 @@
         <v>24446</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -5332,13 +5380,13 @@
         <v>38263</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -5347,13 +5395,13 @@
         <v>62708</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5416,13 @@
         <v>6939</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5383,13 +5431,13 @@
         <v>4746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>112</v>
+        <v>335</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5398,13 +5446,13 @@
         <v>11685</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5467,13 @@
         <v>607</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5440,7 +5488,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>103</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5449,13 +5497,13 @@
         <v>1285</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,7 +5524,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5506,7 +5554,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5622,13 @@
         <v>32113</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -5589,13 +5637,13 @@
         <v>24813</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M28" s="7">
         <v>79</v>
@@ -5604,13 +5652,13 @@
         <v>56926</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5673,13 @@
         <v>45620</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>356</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -5640,13 +5688,13 @@
         <v>55430</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M29" s="7">
         <v>130</v>
@@ -5655,13 +5703,13 @@
         <v>101050</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5724,13 @@
         <v>11171</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -5691,13 +5739,13 @@
         <v>6293</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -5706,13 +5754,13 @@
         <v>17464</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5775,13 @@
         <v>2782</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>375</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5742,13 +5790,13 @@
         <v>701</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -5757,13 +5805,13 @@
         <v>3483</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,7 +5832,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5793,13 +5841,13 @@
         <v>1741</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -5808,13 +5856,13 @@
         <v>1741</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5930,13 @@
         <v>129293</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H34" s="7">
         <v>149</v>
@@ -5897,13 +5945,13 @@
         <v>103819</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M34" s="7">
         <v>339</v>
@@ -5912,13 +5960,13 @@
         <v>233112</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5981,13 @@
         <v>159655</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H35" s="7">
         <v>259</v>
@@ -5948,13 +5996,13 @@
         <v>183869</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>21</v>
+        <v>398</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M35" s="7">
         <v>488</v>
@@ -5963,13 +6011,13 @@
         <v>343524</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +6032,13 @@
         <v>33575</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -5999,13 +6047,13 @@
         <v>24132</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="M36" s="7">
         <v>85</v>
@@ -6014,13 +6062,13 @@
         <v>57706</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6083,13 @@
         <v>5989</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -6050,13 +6098,13 @@
         <v>2720</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -6065,13 +6113,13 @@
         <v>8709</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6134,13 @@
         <v>1321</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6101,13 +6149,13 @@
         <v>1741</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6116,13 +6164,13 @@
         <v>3062</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B2196F-51C1-457E-8E57-56FC2A37B27D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C768F77-9F44-4948-9157-9D70A2F58204}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6216,7 +6264,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6323,13 +6371,13 @@
         <v>7525</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6338,13 +6386,13 @@
         <v>8250</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -6353,13 +6401,13 @@
         <v>15776</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6422,13 @@
         <v>6226</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6389,13 +6437,13 @@
         <v>5676</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -6404,13 +6452,13 @@
         <v>11902</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6473,13 @@
         <v>562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6446,7 +6494,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6455,13 +6503,13 @@
         <v>562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,7 +6530,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6497,7 +6545,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6512,7 +6560,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,7 +6581,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6548,7 +6596,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6563,7 +6611,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,10 +6682,10 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -6646,13 +6694,13 @@
         <v>22708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -6661,13 +6709,13 @@
         <v>58076</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6730,13 @@
         <v>19472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>459</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>461</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -6697,13 +6745,13 @@
         <v>29574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -6712,13 +6760,13 @@
         <v>49046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>456</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6781,13 @@
         <v>3745</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6748,13 +6796,13 @@
         <v>3296</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>100</v>
+        <v>469</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -6763,13 +6811,13 @@
         <v>7041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6832,13 @@
         <v>727</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6799,13 +6847,13 @@
         <v>675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6814,13 +6862,13 @@
         <v>1402</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,7 +6889,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6856,7 +6904,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6871,7 +6919,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,7 +6975,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6939,13 +6987,13 @@
         <v>60228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -6954,13 +7002,13 @@
         <v>51505</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="M16" s="7">
         <v>163</v>
@@ -6969,13 +7017,13 @@
         <v>111732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +7038,13 @@
         <v>37409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -7005,13 +7053,13 @@
         <v>46300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>494</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>495</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -7020,13 +7068,13 @@
         <v>83709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>497</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7089,13 @@
         <v>8724</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>486</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7056,13 +7104,13 @@
         <v>7216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>243</v>
+        <v>503</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>489</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -7071,13 +7119,13 @@
         <v>15940</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7140,13 @@
         <v>671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>508</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7107,13 +7155,13 @@
         <v>617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -7122,13 +7170,13 @@
         <v>1288</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,7 +7197,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7158,13 +7206,13 @@
         <v>993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7173,13 +7221,13 @@
         <v>993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,7 +7283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7247,13 +7295,13 @@
         <v>43016</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -7262,13 +7310,13 @@
         <v>39402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -7277,13 +7325,13 @@
         <v>82419</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7346,13 @@
         <v>29225</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -7313,13 +7361,13 @@
         <v>27393</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -7328,13 +7376,13 @@
         <v>56618</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7397,13 @@
         <v>3942</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>212</v>
+        <v>537</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7364,13 +7412,13 @@
         <v>3039</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>521</v>
+        <v>381</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -7379,13 +7427,13 @@
         <v>6981</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,7 +7454,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7415,13 +7463,13 @@
         <v>1230</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>526</v>
+        <v>211</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7430,13 +7478,13 @@
         <v>1230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7499,13 @@
         <v>588</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7466,13 +7514,13 @@
         <v>646</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7481,13 +7529,13 @@
         <v>1233</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7603,13 @@
         <v>47466</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="H28" s="7">
         <v>66</v>
@@ -7570,13 +7618,13 @@
         <v>51796</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>537</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="M28" s="7">
         <v>129</v>
@@ -7585,13 +7633,13 @@
         <v>99262</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7654,13 @@
         <v>46062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
@@ -7621,13 +7669,13 @@
         <v>46083</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>320</v>
+        <v>561</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>480</v>
+        <v>562</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="M29" s="7">
         <v>125</v>
@@ -7636,13 +7684,13 @@
         <v>92145</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,13 +7705,13 @@
         <v>7188</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -7672,13 +7720,13 @@
         <v>8941</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>554</v>
+        <v>281</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -7687,13 +7735,13 @@
         <v>16129</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>63</v>
+        <v>573</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,7 +7762,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7723,13 +7771,13 @@
         <v>772</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>411</v>
+        <v>576</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -7738,13 +7786,13 @@
         <v>772</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,7 +7813,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7780,7 +7828,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7795,7 +7843,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,13 +7911,13 @@
         <v>193604</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="H34" s="7">
         <v>244</v>
@@ -7878,13 +7926,13 @@
         <v>173661</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="M34" s="7">
         <v>508</v>
@@ -7893,13 +7941,13 @@
         <v>367265</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>125</v>
+        <v>584</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,13 +7962,13 @@
         <v>138395</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H35" s="7">
         <v>224</v>
@@ -7929,13 +7977,13 @@
         <v>155025</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="M35" s="7">
         <v>414</v>
@@ -7944,13 +7992,13 @@
         <v>293420</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>577</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,13 +8013,13 @@
         <v>24162</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -7980,13 +8028,13 @@
         <v>22491</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>299</v>
+        <v>598</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
@@ -7995,13 +8043,13 @@
         <v>46653</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +8064,13 @@
         <v>1397</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -8031,13 +8079,13 @@
         <v>3294</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>589</v>
+        <v>378</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -8046,13 +8094,13 @@
         <v>4691</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>183</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,13 +8115,13 @@
         <v>588</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>592</v>
+        <v>217</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -8082,13 +8130,13 @@
         <v>1638</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -8097,13 +8145,13 @@
         <v>2226</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>149</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
